--- a/data/segmentation_result/K_1_3.xlsx
+++ b/data/segmentation_result/K_1_3.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9295557293970125</v>
+        <v>0.8982527434060517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9017149672758071</v>
+        <v>0.9304035454079698</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9152975237167931</v>
+        <v>0.9138748840108863</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9942146376476805</v>
+        <v>0.8897123884552529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9934093756218483</v>
+        <v>0.8947228221496349</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9938112903003743</v>
+        <v>0.8913926749940128</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8514168850940889</v>
+        <v>0.8114406731105589</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9969409643187243</v>
+        <v>0.9488392618742602</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9183728139115713</v>
+        <v>0.8742090924817714</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9864412035529513</v>
+        <v>0.8997658971110016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9852741680350745</v>
+        <v>0.9324203527803343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9858510772142489</v>
+        <v>0.9156653617334417</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9575812262147501</v>
+        <v>0.9330770253884413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9282060067304354</v>
+        <v>0.8836600039328731</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9426428579514944</v>
+        <v>0.9075046701616589</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.990770343110716</v>
+        <v>0.8985140229034283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9953225613074697</v>
+        <v>0.919553075674407</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9930384803908978</v>
+        <v>0.9087532421748055</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9873023872219298</v>
+        <v>0.879078758557221</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9959611427136057</v>
+        <v>0.9366092773553951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9916070961078433</v>
+        <v>0.9068086201055939</v>
       </c>
     </row>
   </sheetData>
